--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>日期</t>
   </si>
@@ -36,6 +36,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -52,6 +59,58 @@
   </si>
   <si>
     <t>3号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <t>5号</t>
+  </si>
+  <si>
+    <t>6号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <t>8号</t>
+  </si>
+  <si>
+    <t>9号</t>
   </si>
 </sst>
 </file>
@@ -1022,13 +1081,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" width="10.7789473684211" style="1"/>
   </cols>
@@ -1066,7 +1125,55 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>30</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
   </si>
@@ -105,12 +105,6 @@
       </rPr>
       <t>号</t>
     </r>
-  </si>
-  <si>
-    <t>8号</t>
-  </si>
-  <si>
-    <t>9号</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1078,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5" outlineLevelCol="3"/>
@@ -1133,7 +1127,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1141,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1149,7 +1143,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1157,24 +1151,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>51</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>100</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -27,12 +27,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>日期</t>
   </si>
   <si>
     <t>人数</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <t>2号</t>
+  </si>
+  <si>
+    <t>3号</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <t>5号</t>
+  </si>
+  <si>
+    <t>6号</t>
   </si>
   <si>
     <r>
@@ -43,7 +81,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -53,12 +91,6 @@
       </rPr>
       <t>号</t>
     </r>
-  </si>
-  <si>
-    <t>2号</t>
-  </si>
-  <si>
-    <t>3号</t>
   </si>
   <si>
     <r>
@@ -69,7 +101,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -81,10 +113,10 @@
     </r>
   </si>
   <si>
-    <t>5号</t>
-  </si>
-  <si>
-    <t>6号</t>
+    <t>9号</t>
+  </si>
+  <si>
+    <t>10号</t>
   </si>
   <si>
     <r>
@@ -95,7 +127,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -103,7 +135,217 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>号</t>
+      <t>1号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2号</t>
+    </r>
+  </si>
+  <si>
+    <t>13号</t>
+  </si>
+  <si>
+    <t>14号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5号</t>
+    </r>
+  </si>
+  <si>
+    <t>16号</t>
+  </si>
+  <si>
+    <t>17号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9号</t>
+    </r>
+  </si>
+  <si>
+    <t>20号</t>
+  </si>
+  <si>
+    <t>21号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3号</t>
+    </r>
+  </si>
+  <si>
+    <t>24号</t>
+  </si>
+  <si>
+    <t>25号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6号</t>
+    </r>
+  </si>
+  <si>
+    <t>27号</t>
+  </si>
+  <si>
+    <t>28号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0号</t>
     </r>
   </si>
 </sst>
@@ -743,7 +985,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +997,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1075,10 +1320,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5" outlineLevelCol="3"/>
@@ -1097,17 +1342,17 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -1115,7 +1360,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
@@ -1123,7 +1368,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
@@ -1131,7 +1376,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
@@ -1139,7 +1384,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2">
@@ -1147,7 +1392,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2">
@@ -1155,12 +1400,188 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -36,6 +36,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -55,6 +62,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>4</t>
     </r>
     <r>
@@ -985,7 +999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,9 +1011,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1322,8 +1333,8 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5" outlineLevelCol="3"/>
@@ -1342,17 +1353,17 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -1360,7 +1371,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
@@ -1368,7 +1379,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
@@ -1376,7 +1387,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
@@ -1384,7 +1395,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2">
@@ -1392,7 +1403,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2">
@@ -1400,23 +1411,23 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>85</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2">
@@ -1424,7 +1435,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2">
@@ -1432,7 +1443,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2">
@@ -1440,7 +1451,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2">
@@ -1448,7 +1459,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2">
@@ -1456,7 +1467,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2">
@@ -1464,15 +1475,15 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="2">
@@ -1480,7 +1491,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="2">
@@ -1488,15 +1499,15 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>96</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2">
@@ -1504,7 +1515,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="2">
@@ -1512,7 +1523,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="2">
@@ -1520,7 +1531,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="2">
@@ -1528,7 +1539,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="2">
@@ -1536,15 +1547,15 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>102</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="2">
@@ -1552,7 +1563,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="2">
@@ -1560,15 +1571,15 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="2">
@@ -1576,7 +1587,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="2">
